--- a/src/Files/products.xlsx
+++ b/src/Files/products.xlsx
@@ -1046,8 +1046,16 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.060625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.330625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.020625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.670625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.220625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" ht="17.985024" customHeight="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1067,7 +1075,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A2" s="2" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -1087,7 +1095,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A3" s="2" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -1107,7 +1115,7 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A4" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
@@ -1127,7 +1135,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A5" s="2" t="n">
         <x:v>4</x:v>
       </x:c>
@@ -1147,7 +1155,7 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A6" s="2" t="n">
         <x:v>5</x:v>
       </x:c>
@@ -1167,7 +1175,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6">
+    <x:row r="7" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A7" s="2" t="n">
         <x:v>6</x:v>
       </x:c>
@@ -1187,7 +1195,7 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A8" s="2" t="n">
         <x:v>7</x:v>
       </x:c>
@@ -1207,7 +1215,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
+    <x:row r="9" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A9" s="2" t="n">
         <x:v>8</x:v>
       </x:c>
@@ -1227,7 +1235,7 @@
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A10" s="2" t="n">
         <x:v>9</x:v>
       </x:c>
@@ -1247,7 +1255,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A11" s="2" t="n">
         <x:v>10</x:v>
       </x:c>
@@ -1267,7 +1275,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
+    <x:row r="12" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A12" s="2" t="n">
         <x:v>12</x:v>
       </x:c>
@@ -1287,7 +1295,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
+    <x:row r="13" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A13" s="2" t="n">
         <x:v>13</x:v>
       </x:c>
@@ -1307,7 +1315,7 @@
         <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
+    <x:row r="14" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A14" s="2" t="n">
         <x:v>14</x:v>
       </x:c>
@@ -1327,7 +1335,7 @@
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
+    <x:row r="15" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A15" s="2" t="n">
         <x:v>15</x:v>
       </x:c>
@@ -1347,7 +1355,7 @@
         <x:v>225</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
+    <x:row r="16" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A16" s="2" t="n">
         <x:v>16</x:v>
       </x:c>
@@ -1367,7 +1375,7 @@
         <x:v>240</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
+    <x:row r="17" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A17" s="2" t="n">
         <x:v>17</x:v>
       </x:c>
@@ -1387,7 +1395,7 @@
         <x:v>255</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6">
+    <x:row r="18" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A18" s="2" t="n">
         <x:v>18</x:v>
       </x:c>
@@ -1407,7 +1415,7 @@
         <x:v>270</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6">
+    <x:row r="19" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A19" s="2" t="n">
         <x:v>19</x:v>
       </x:c>
@@ -1427,7 +1435,7 @@
         <x:v>285</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
+    <x:row r="20" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A20" s="2" t="n">
         <x:v>20</x:v>
       </x:c>
@@ -1447,7 +1455,7 @@
         <x:v>300</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6">
+    <x:row r="21" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A21" s="2" t="n">
         <x:v>21</x:v>
       </x:c>
@@ -1467,7 +1475,7 @@
         <x:v>315</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6">
+    <x:row r="22" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A22" s="2" t="n">
         <x:v>22</x:v>
       </x:c>
@@ -1487,7 +1495,7 @@
         <x:v>330</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6">
+    <x:row r="23" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A23" s="2" t="n">
         <x:v>23</x:v>
       </x:c>
@@ -1507,7 +1515,7 @@
         <x:v>345</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6">
+    <x:row r="24" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A24" s="2" t="n">
         <x:v>24</x:v>
       </x:c>
@@ -1527,7 +1535,7 @@
         <x:v>360</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6">
+    <x:row r="25" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A25" s="2" t="n">
         <x:v>25</x:v>
       </x:c>
@@ -1547,7 +1555,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6">
+    <x:row r="26" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A26" s="2" t="n">
         <x:v>26</x:v>
       </x:c>
@@ -1567,7 +1575,7 @@
         <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6">
+    <x:row r="27" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A27" s="2" t="n">
         <x:v>27</x:v>
       </x:c>
@@ -1587,7 +1595,7 @@
         <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6">
+    <x:row r="28" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A28" s="2" t="n">
         <x:v>28</x:v>
       </x:c>
@@ -1607,7 +1615,7 @@
         <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
+    <x:row r="29" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A29" s="2" t="n">
         <x:v>29</x:v>
       </x:c>
@@ -1627,7 +1635,7 @@
         <x:v>435</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6">
+    <x:row r="30" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A30" s="2" t="n">
         <x:v>30</x:v>
       </x:c>
@@ -1647,7 +1655,7 @@
         <x:v>450</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6">
+    <x:row r="31" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A31" s="2" t="n">
         <x:v>31</x:v>
       </x:c>
@@ -1667,7 +1675,7 @@
         <x:v>465</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6">
+    <x:row r="32" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A32" s="2" t="n">
         <x:v>32</x:v>
       </x:c>
@@ -1687,7 +1695,7 @@
         <x:v>480</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
+    <x:row r="33" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A33" s="2" t="n">
         <x:v>33</x:v>
       </x:c>
@@ -1707,7 +1715,7 @@
         <x:v>495</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
+    <x:row r="34" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A34" s="2" t="n">
         <x:v>34</x:v>
       </x:c>
@@ -1727,7 +1735,7 @@
         <x:v>510</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
+    <x:row r="35" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A35" s="2" t="n">
         <x:v>35</x:v>
       </x:c>
@@ -1747,7 +1755,7 @@
         <x:v>525</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6">
+    <x:row r="36" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A36" s="2" t="n">
         <x:v>36</x:v>
       </x:c>
@@ -1767,7 +1775,7 @@
         <x:v>540</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
+    <x:row r="37" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A37" s="2" t="n">
         <x:v>37</x:v>
       </x:c>
@@ -1787,7 +1795,7 @@
         <x:v>555</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
+    <x:row r="38" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A38" s="2" t="n">
         <x:v>38</x:v>
       </x:c>
@@ -1807,7 +1815,7 @@
         <x:v>570</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6">
+    <x:row r="39" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A39" s="2" t="n">
         <x:v>39</x:v>
       </x:c>
@@ -1827,7 +1835,7 @@
         <x:v>585</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6">
+    <x:row r="40" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A40" s="2" t="n">
         <x:v>40</x:v>
       </x:c>
@@ -1847,7 +1855,7 @@
         <x:v>600</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6">
+    <x:row r="41" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A41" s="2" t="n">
         <x:v>41</x:v>
       </x:c>
@@ -1867,7 +1875,7 @@
         <x:v>615</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6">
+    <x:row r="42" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A42" s="2" t="n">
         <x:v>42</x:v>
       </x:c>
@@ -1887,7 +1895,7 @@
         <x:v>630</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6">
+    <x:row r="43" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A43" s="2" t="n">
         <x:v>43</x:v>
       </x:c>
@@ -1907,7 +1915,7 @@
         <x:v>645</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6">
+    <x:row r="44" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A44" s="2" t="n">
         <x:v>44</x:v>
       </x:c>
@@ -1927,7 +1935,7 @@
         <x:v>660</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6">
+    <x:row r="45" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A45" s="2" t="n">
         <x:v>45</x:v>
       </x:c>
@@ -1947,7 +1955,7 @@
         <x:v>675</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6">
+    <x:row r="46" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A46" s="2" t="n">
         <x:v>46</x:v>
       </x:c>
@@ -1967,7 +1975,7 @@
         <x:v>690</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6">
+    <x:row r="47" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A47" s="2" t="n">
         <x:v>47</x:v>
       </x:c>
@@ -1987,7 +1995,7 @@
         <x:v>705</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6">
+    <x:row r="48" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A48" s="2" t="n">
         <x:v>48</x:v>
       </x:c>
@@ -2007,7 +2015,7 @@
         <x:v>720</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6">
+    <x:row r="49" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A49" s="2" t="n">
         <x:v>49</x:v>
       </x:c>
@@ -2027,7 +2035,7 @@
         <x:v>735</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6">
+    <x:row r="50" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A50" s="2" t="n">
         <x:v>50</x:v>
       </x:c>
@@ -2047,7 +2055,7 @@
         <x:v>750</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6">
+    <x:row r="51" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A51" s="2" t="n">
         <x:v>51</x:v>
       </x:c>
@@ -2067,7 +2075,7 @@
         <x:v>765</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:6">
+    <x:row r="52" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A52" s="2" t="n">
         <x:v>52</x:v>
       </x:c>
@@ -2087,7 +2095,7 @@
         <x:v>780</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:6">
+    <x:row r="53" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A53" s="2" t="n">
         <x:v>53</x:v>
       </x:c>
@@ -2107,7 +2115,7 @@
         <x:v>795</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:6">
+    <x:row r="54" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A54" s="2" t="n">
         <x:v>54</x:v>
       </x:c>
@@ -2127,7 +2135,7 @@
         <x:v>810</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:6">
+    <x:row r="55" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A55" s="2" t="n">
         <x:v>55</x:v>
       </x:c>
@@ -2147,7 +2155,7 @@
         <x:v>825</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:6">
+    <x:row r="56" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A56" s="2" t="n">
         <x:v>56</x:v>
       </x:c>
@@ -2167,7 +2175,7 @@
         <x:v>840</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:6">
+    <x:row r="57" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A57" s="2" t="n">
         <x:v>57</x:v>
       </x:c>
@@ -2187,7 +2195,7 @@
         <x:v>855</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:6">
+    <x:row r="58" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A58" s="2" t="n">
         <x:v>58</x:v>
       </x:c>
@@ -2207,7 +2215,7 @@
         <x:v>870</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:6">
+    <x:row r="59" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A59" s="2" t="n">
         <x:v>59</x:v>
       </x:c>
@@ -2227,7 +2235,7 @@
         <x:v>885</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:6">
+    <x:row r="60" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A60" s="2" t="n">
         <x:v>60</x:v>
       </x:c>
@@ -2247,7 +2255,7 @@
         <x:v>900</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:6">
+    <x:row r="61" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A61" s="2" t="n">
         <x:v>61</x:v>
       </x:c>
@@ -2267,7 +2275,7 @@
         <x:v>915</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:6">
+    <x:row r="62" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A62" s="2" t="n">
         <x:v>62</x:v>
       </x:c>
@@ -2287,7 +2295,7 @@
         <x:v>930</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:6">
+    <x:row r="63" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A63" s="2" t="n">
         <x:v>63</x:v>
       </x:c>
@@ -2307,7 +2315,7 @@
         <x:v>945</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:6">
+    <x:row r="64" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A64" s="2" t="n">
         <x:v>64</x:v>
       </x:c>
@@ -2327,7 +2335,7 @@
         <x:v>960</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:6">
+    <x:row r="65" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A65" s="2" t="n">
         <x:v>65</x:v>
       </x:c>
@@ -2347,7 +2355,7 @@
         <x:v>975</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:6">
+    <x:row r="66" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A66" s="2" t="n">
         <x:v>66</x:v>
       </x:c>
@@ -2367,7 +2375,7 @@
         <x:v>990</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:6">
+    <x:row r="67" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A67" s="2" t="n">
         <x:v>67</x:v>
       </x:c>
@@ -2387,7 +2395,7 @@
         <x:v>1005</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:6">
+    <x:row r="68" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A68" s="2" t="n">
         <x:v>68</x:v>
       </x:c>
@@ -2407,7 +2415,7 @@
         <x:v>1020</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:6">
+    <x:row r="69" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A69" s="2" t="n">
         <x:v>69</x:v>
       </x:c>
@@ -2427,7 +2435,7 @@
         <x:v>1035</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:6">
+    <x:row r="70" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A70" s="2" t="n">
         <x:v>70</x:v>
       </x:c>
@@ -2447,7 +2455,7 @@
         <x:v>1050</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:6">
+    <x:row r="71" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A71" s="2" t="n">
         <x:v>71</x:v>
       </x:c>
@@ -2467,7 +2475,7 @@
         <x:v>1065</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:6">
+    <x:row r="72" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A72" s="2" t="n">
         <x:v>72</x:v>
       </x:c>
@@ -2487,7 +2495,7 @@
         <x:v>1080</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:6">
+    <x:row r="73" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A73" s="2" t="n">
         <x:v>73</x:v>
       </x:c>
@@ -2507,7 +2515,7 @@
         <x:v>1095</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:6">
+    <x:row r="74" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A74" s="2" t="n">
         <x:v>74</x:v>
       </x:c>
@@ -2527,7 +2535,7 @@
         <x:v>1110</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:6">
+    <x:row r="75" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A75" s="2" t="n">
         <x:v>75</x:v>
       </x:c>
@@ -2547,7 +2555,7 @@
         <x:v>1125</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:6">
+    <x:row r="76" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A76" s="2" t="n">
         <x:v>76</x:v>
       </x:c>
@@ -2567,7 +2575,7 @@
         <x:v>1140</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:6">
+    <x:row r="77" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A77" s="2" t="n">
         <x:v>77</x:v>
       </x:c>
@@ -2587,7 +2595,7 @@
         <x:v>1155</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:6">
+    <x:row r="78" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A78" s="2" t="n">
         <x:v>78</x:v>
       </x:c>
@@ -2607,7 +2615,7 @@
         <x:v>1170</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:6">
+    <x:row r="79" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A79" s="2" t="n">
         <x:v>79</x:v>
       </x:c>
@@ -2627,7 +2635,7 @@
         <x:v>1185</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:6">
+    <x:row r="80" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A80" s="2" t="n">
         <x:v>80</x:v>
       </x:c>
@@ -2647,7 +2655,7 @@
         <x:v>1200</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:6">
+    <x:row r="81" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A81" s="2" t="n">
         <x:v>81</x:v>
       </x:c>
@@ -2667,7 +2675,7 @@
         <x:v>1215</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:6">
+    <x:row r="82" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A82" s="2" t="n">
         <x:v>82</x:v>
       </x:c>
@@ -2687,7 +2695,7 @@
         <x:v>1230</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:6">
+    <x:row r="83" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A83" s="2" t="n">
         <x:v>83</x:v>
       </x:c>
@@ -2707,7 +2715,7 @@
         <x:v>1245</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:6">
+    <x:row r="84" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A84" s="2" t="n">
         <x:v>84</x:v>
       </x:c>
@@ -2727,7 +2735,7 @@
         <x:v>1260</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:6">
+    <x:row r="85" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A85" s="2" t="n">
         <x:v>85</x:v>
       </x:c>
@@ -2747,7 +2755,7 @@
         <x:v>1275</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:6">
+    <x:row r="86" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A86" s="2" t="n">
         <x:v>86</x:v>
       </x:c>
@@ -2767,7 +2775,7 @@
         <x:v>1290</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:6">
+    <x:row r="87" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A87" s="2" t="n">
         <x:v>87</x:v>
       </x:c>
@@ -2787,7 +2795,7 @@
         <x:v>1305</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:6">
+    <x:row r="88" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A88" s="2" t="n">
         <x:v>88</x:v>
       </x:c>
@@ -2807,7 +2815,7 @@
         <x:v>1320</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:6">
+    <x:row r="89" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A89" s="2" t="n">
         <x:v>89</x:v>
       </x:c>
@@ -2827,7 +2835,7 @@
         <x:v>1335</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:6">
+    <x:row r="90" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A90" s="2" t="n">
         <x:v>90</x:v>
       </x:c>
@@ -2847,7 +2855,7 @@
         <x:v>1350</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:6">
+    <x:row r="91" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A91" s="2" t="n">
         <x:v>91</x:v>
       </x:c>
@@ -2867,7 +2875,7 @@
         <x:v>1365</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:6">
+    <x:row r="92" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A92" s="2" t="n">
         <x:v>92</x:v>
       </x:c>
@@ -2887,7 +2895,7 @@
         <x:v>1380</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:6">
+    <x:row r="93" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A93" s="2" t="n">
         <x:v>93</x:v>
       </x:c>
@@ -2907,7 +2915,7 @@
         <x:v>1395</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:6">
+    <x:row r="94" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A94" s="2" t="n">
         <x:v>94</x:v>
       </x:c>
@@ -2927,7 +2935,7 @@
         <x:v>1410</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:6">
+    <x:row r="95" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A95" s="2" t="n">
         <x:v>95</x:v>
       </x:c>
@@ -2947,7 +2955,7 @@
         <x:v>1425</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:6">
+    <x:row r="96" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A96" s="2" t="n">
         <x:v>96</x:v>
       </x:c>
@@ -2967,7 +2975,7 @@
         <x:v>1440</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:6">
+    <x:row r="97" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A97" s="2" t="n">
         <x:v>97</x:v>
       </x:c>
@@ -2987,7 +2995,7 @@
         <x:v>1455</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:6">
+    <x:row r="98" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A98" s="2" t="n">
         <x:v>98</x:v>
       </x:c>
@@ -3007,7 +3015,7 @@
         <x:v>1470</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:6">
+    <x:row r="99" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A99" s="2" t="n">
         <x:v>99</x:v>
       </x:c>
@@ -3027,7 +3035,7 @@
         <x:v>1485</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:6">
+    <x:row r="100" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A100" s="2" t="n">
         <x:v>100</x:v>
       </x:c>
@@ -3047,7 +3055,7 @@
         <x:v>1500</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:6">
+    <x:row r="101" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A101" s="2" t="n">
         <x:v>101</x:v>
       </x:c>
@@ -3067,7 +3075,7 @@
         <x:v>1515</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:6">
+    <x:row r="102" spans="1:6" ht="15.218096" customHeight="1">
       <x:c r="A102" s="3" t="s"/>
       <x:c r="B102" s="3" t="s"/>
       <x:c r="C102" s="3" t="s">
